--- a/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>74,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>-5,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43,3%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,06</t>
+          <t>0,5; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 8,51</t>
+          <t>-15,86; 7,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,23</t>
+          <t>-6,25; 7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 111,64</t>
+          <t>-3,66; 10,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 83,18</t>
+          <t>1,67; 220,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 92,77</t>
+          <t>-54,92; 67,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-37,11; 87,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-34,35; 185,02</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>-13,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 5,5</t>
+          <t>-11,08; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,73</t>
+          <t>-6,26; 11,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 11,34</t>
+          <t>-10,01; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 57,46</t>
+          <t>-7,67; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 126,97</t>
+          <t>-53,11; 49,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 132,53</t>
+          <t>-30,1; 93,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,93; 79,2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-49,39; 144,64</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-12,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,61</t>
+          <t>-33,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-43,98%</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>-63,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-70,48%</t>
+          <t>-45,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-80,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,76%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 4,58</t>
+          <t>-22,74; 6,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 11,6</t>
+          <t>-52,19; 11,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -1,66</t>
+          <t>-67,5; -5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-90,21; 135,19</t>
+          <t>-20,3; 9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,37; 126,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-95,5; -1,7</t>
+          <t>-93,31; 224,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -10,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 4,42</t>
+          <t>-2,77; 7,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,84</t>
+          <t>-10,55; 5,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,53</t>
+          <t>-10,79; 2,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 42,35</t>
+          <t>-2,36; 7,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 61,95</t>
+          <t>-18,99; 73,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 53,41</t>
+          <t>-40,6; 40,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 23,36</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 114,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>74,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>43,3%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.213848171728765</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.05531994597944567</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.004655656135593711</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.858464984757003</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8413878308496854</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.00328922008830537</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0003648340047866822</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4370275751364985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 13,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,86; 7,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 7,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 10,83</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 220,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-54,92; 67,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; 87,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-34,35; 185,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.497495070005512</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.94207323201837</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.729001832469988</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.494634726952914</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.05365164890081442</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5026135588750363</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4335212966450455</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3236877293411323</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.1975853967265</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.218044784881654</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.483225347273994</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.3552318298314</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.551621893125403</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7303525980161518</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7419648383162425</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.936809083546268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,08; 5,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 11,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 7,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 9,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-53,11; 49,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-30,1; 93,8</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,93; 79,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,39; 144,64</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.048591929501652</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.885409796019916</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4986128206476925</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.199533642227036</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2160583198082648</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1142411914342113</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.03419010678885275</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.222777056326699</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-33,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-63,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-45,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-80,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.09576419178413</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.44125938338417</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.535831786862017</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.571981384990057</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5977058847968338</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3329057220111694</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4798028126502032</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4848170882673224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 6,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-52,19; 11,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-67,5; -5,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 9,94</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-93,31; 224,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -10,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.475521707920023</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.35057446733849</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.38359412432891</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.05833746581757</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3588817458055855</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9864425026026701</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8594760412465224</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.686554857586157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,27%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-17,95%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.301800876605687</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.235807397318704</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-32.23723015351114</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3388413604586686</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.7096951299710965</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3423209171612102</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.8070290642334667</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05796831253118151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 7,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; 2,85</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 7,54</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-18,99; 73,78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-40,6; 40,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-48,36; 23,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 114,57</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.84559344667045</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-47.23672370848816</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-66.52224221524422</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.82978495480613</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.9210030364648053</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.468940874856247</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.95319440095104</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.97543682381895</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.52073937730285</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>2.682863866423649</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.1064929713327111</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.572463367235419</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.06500316426284181</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.277161703690298</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.807772304839723</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1157755692190005</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.003727245187283324</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1990335964684839</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3154678099655014</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.010069283000596</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.08817986428628</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.7952696762526</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.964027800413647</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2465630918760305</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3487712868125409</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4958680713493955</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1996305190054964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.342297244035236</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.94476037808999</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.50109049500275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.884336224674997</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.676054813233546</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4418194121028148</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1960623762230668</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.174814024418447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1017,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
